--- a/teaching/QuizzesForProgramming.xlsx
+++ b/teaching/QuizzesForProgramming.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ken\Documents\GitHub\MethodForTalent\teaching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C22E6E2-3BC1-4FB9-A18F-579D3C238331}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBA8F3E-1B63-4581-9A8E-08CD07F070D9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" activeTab="1" xr2:uid="{EAD84E66-BAB5-48E0-BAF5-5BAD038E5805}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" activeTab="3" xr2:uid="{EAD84E66-BAB5-48E0-BAF5-5BAD038E5805}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="c#" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Questions</t>
   </si>
@@ -63,6 +65,15 @@
   </si>
   <si>
     <t>Yes.</t>
+  </si>
+  <si>
+    <t>Which converts a type to a byte value in JavaScript?</t>
+  </si>
+  <si>
+    <t>Which converts a type to a double type in JavaScript?</t>
+  </si>
+  <si>
+    <t>Which converts a type to an unsigned big type in JavaScript?</t>
   </si>
 </sst>
 </file>
@@ -441,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F99B72-5C09-4A7B-A1EC-6BA71062DCFB}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,4 +514,83 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F45B5C4-5562-4B59-955B-FF7D9D1BDA05}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F4F9CF-9C3B-45AE-A8CF-D5D0DD039F8B}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/teaching/QuizzesForProgramming.xlsx
+++ b/teaching/QuizzesForProgramming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ken\Documents\GitHub\MethodForTalent\teaching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBA8F3E-1B63-4581-9A8E-08CD07F070D9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887661C9-9249-41BB-B424-A6AE232B5D8B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" activeTab="3" xr2:uid="{EAD84E66-BAB5-48E0-BAF5-5BAD038E5805}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" activeTab="1" xr2:uid="{EAD84E66-BAB5-48E0-BAF5-5BAD038E5805}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Questions</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>Which converts a type to an unsigned big type in JavaScript?</t>
+  </si>
+  <si>
+    <t>What is meant by preprocessor directive in C#.NET?</t>
+  </si>
+  <si>
+    <t>Preprocessor directives are commands that are interpreted by the compiler and affect the output or behavior of the build process. The C# compiler does not have a separate preprocessor, like C and C++ we cannot use these directives to create macros. Preprocessing directives are top lines in our program that start with ‘#’. The ‘#’ is followed by an identifier that is the directive name.</t>
   </si>
 </sst>
 </file>
@@ -450,10 +456,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F99B72-5C09-4A7B-A1EC-6BA71062DCFB}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,6 +516,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -532,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F4F9CF-9C3B-45AE-A8CF-D5D0DD039F8B}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/teaching/QuizzesForProgramming.xlsx
+++ b/teaching/QuizzesForProgramming.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ken\Documents\GitHub\MethodForTalent\teaching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887661C9-9249-41BB-B424-A6AE232B5D8B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21AEE24-8F60-4A9D-ABAF-7B653B2A9F40}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" activeTab="1" xr2:uid="{EAD84E66-BAB5-48E0-BAF5-5BAD038E5805}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" xr2:uid="{EAD84E66-BAB5-48E0-BAF5-5BAD038E5805}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="c#" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Questions</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>Preprocessor directives are commands that are interpreted by the compiler and affect the output or behavior of the build process. The C# compiler does not have a separate preprocessor, like C and C++ we cannot use these directives to create macros. Preprocessing directives are top lines in our program that start with ‘#’. The ‘#’ is followed by an identifier that is the directive name.</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>What is a loop?</t>
+  </si>
+  <si>
+    <t>Create a loop in each language of choice.</t>
   </si>
 </sst>
 </file>
@@ -444,12 +453,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C3D47C-D186-4BE7-9A88-C98EC4666708}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -458,7 +486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F99B72-5C09-4A7B-A1EC-6BA71062DCFB}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
